--- a/TestList/buyclass-student.xlsx
+++ b/TestList/buyclass-student.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24525" windowHeight="12090"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="48">
   <si>
     <t>序号
 （id）</t>
@@ -57,15 +57,24 @@
     <t>空</t>
   </si>
   <si>
+    <t>wait code</t>
+  </si>
+  <si>
+    <t>等待</t>
+  </si>
+  <si>
+    <t>Xpath</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
     <t>Account number</t>
   </si>
   <si>
     <t>输入</t>
   </si>
   <si>
-    <t>Xpath</t>
-  </si>
-  <si>
     <t>//input[contains(@ng-model,'model.use.useName')]</t>
   </si>
   <si>
@@ -81,21 +90,33 @@
     <t>000000</t>
   </si>
   <si>
+    <t>click code</t>
+  </si>
+  <si>
+    <t>点击</t>
+  </si>
+  <si>
+    <t>//input[contains(@name,'picValidateCode')]</t>
+  </si>
+  <si>
+    <t>flash code</t>
+  </si>
+  <si>
+    <t>/html/body/div[1]/div/div[2]/div[2]/div[3]/div/form/ul/li[3]/span[2]/img</t>
+  </si>
+  <si>
     <t>code</t>
   </si>
   <si>
-    <t>//input[contains(@name,'picValidateCode')]</t>
-  </si>
-  <si>
     <t>!$#2</t>
   </si>
   <si>
+    <t>click password</t>
+  </si>
+  <si>
     <t>login</t>
   </si>
   <si>
-    <t>点击</t>
-  </si>
-  <si>
     <t>//button[contains(@ng-bind,'Ing')]</t>
   </si>
   <si>
@@ -105,10 +126,16 @@
     <t>waitlogin</t>
   </si>
   <si>
-    <t>等待</t>
-  </si>
-  <si>
-    <t>null</t>
+    <t>click Student Center</t>
+  </si>
+  <si>
+    <t>//a[contains(@class,'btn-like')]</t>
+  </si>
+  <si>
+    <t>Go and sign up</t>
+  </si>
+  <si>
+    <t>//a[contains(@class,'current')]</t>
   </si>
   <si>
     <t>classdetail</t>
@@ -126,13 +153,13 @@
     <t>buy</t>
   </si>
   <si>
-    <t>//*[@id="contentView"]/div[2]/div[1]/div[2]/div[3]/button[2]</t>
+    <t>//button[contains(@class,'btn-normal btn')]</t>
   </si>
   <si>
     <t>submitorder</t>
   </si>
   <si>
-    <t>//*[@id="contentView"]/div/ng-form/div/div[2]/div[2]/div/button</t>
+    <t>//button[contains(@class,'ui-btn btn-normal ml10 ng-scope')]</t>
   </si>
   <si>
     <t>returnhome</t>
@@ -146,10 +173,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -170,6 +197,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -190,22 +225,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,6 +264,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -228,77 +303,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -313,43 +340,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -361,139 +484,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -507,26 +534,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -555,13 +582,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -590,17 +621,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -610,10 +637,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -622,139 +649,142 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10"/>
@@ -1110,10 +1140,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1160,7 +1190,7 @@
       <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -1183,8 +1213,8 @@
       <c r="E3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>15</v>
+      <c r="F3" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:6">
@@ -1192,10 +1222,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>13</v>
@@ -1203,7 +1233,7 @@
       <c r="E4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="7" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1215,15 +1245,15 @@
         <v>19</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="7" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1240,79 +1270,79 @@
       <c r="D6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" s="2" customFormat="1" spans="1:6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:6">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>28</v>
+      <c r="E7" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" s="2" customFormat="1" spans="1:6">
+    <row r="8" s="1" customFormat="1" spans="1:6">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" s="2" customFormat="1" spans="1:6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="1:6">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>32</v>
+      <c r="E9" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" s="1" customFormat="1" spans="1:6">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>23</v>
@@ -1320,19 +1350,19 @@
       <c r="D10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>34</v>
+      <c r="E10" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" s="1" customFormat="1" spans="1:6">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>23</v>
@@ -1340,48 +1370,185 @@
       <c r="D11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>36</v>
+      <c r="E11" t="s">
+        <v>31</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" s="2" customFormat="1" spans="1:6">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" t="s">
-        <v>38</v>
+        <v>13</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>10</v>
       </c>
     </row>
+    <row r="13" s="2" customFormat="1" spans="1:6">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" s="2" customFormat="1" spans="1:6">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" s="2" customFormat="1" spans="1:6">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" s="2" customFormat="1" spans="1:6">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2 D3 D4 D5 D6 D7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C15 C16 C17 C18 C19">
+      <formula1>"访问,输入,点击,等待,查验"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2 D3 D4 D5 D6 D7 D8 D9 D10 D11 D12 D13 D14">
       <formula1>"URL,Xpath"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C8 C9 C10 C11 C12">
-      <formula1>"访问,输入,点击,等待,查验"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D13:D65497">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D20:D65504">
       <formula1>"xpath,name,id,css,text"</formula1>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="http://testynsf.59iedu.com"/>
-  </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/TestList/buyclass-student.xlsx
+++ b/TestList/buyclass-student.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="49">
   <si>
     <t>序号
 （id）</t>
@@ -162,10 +162,13 @@
     <t>//button[contains(@class,'ui-btn btn-normal ml10 ng-scope')]</t>
   </si>
   <si>
-    <t>returnhome</t>
-  </si>
-  <si>
-    <t>http://testynsf.59iedu.com/index</t>
+    <t>Close pop-up warning</t>
+  </si>
+  <si>
+    <t>Return to student center</t>
+  </si>
+  <si>
+    <t>//a[contains(@ui-sref,'states.home')]</t>
   </si>
 </sst>
 </file>
@@ -173,10 +176,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -196,7 +199,114 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,45 +320,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -256,80 +327,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -340,55 +343,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -400,127 +523,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -534,35 +537,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -597,6 +578,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -612,6 +611,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -620,27 +634,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -649,131 +652,131 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1140,10 +1143,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1450,7 +1453,7 @@
       <c r="D15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="5" t="s">
         <v>39</v>
       </c>
       <c r="F15" s="1" t="s">
@@ -1525,30 +1528,53 @@
         <v>46</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" t="s">
-        <v>47</v>
+        <v>13</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>10</v>
       </c>
     </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C15 C16 C17 C18 C19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C15 C16 C17 C18 C19 C20">
       <formula1>"访问,输入,点击,等待,查验"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2 D3 D4 D5 D6 D7 D8 D9 D10 D11 D12 D13 D14">
       <formula1>"URL,Xpath"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D20:D65504">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D21:D65504">
       <formula1>"xpath,name,id,css,text"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E15" r:id="rId1" display="http://testynsf.59iedu.com/center/signUpTraining/introduction/2c91129060f2f03a01611d182d90402e"/>
+  </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
